--- a/Result/check1/2025-04-08.xlsx
+++ b/Result/check1/2025-04-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV11"/>
+  <dimension ref="A1:AV12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,84 +733,84 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>-0.43</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>-1.48</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>-1.03</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>-14.0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>3189</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>19.37</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>-0.06</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>-0.43</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>-1.48</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>-1.03</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>-50.0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>103.0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>-14.0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>0</t>
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>38.22</t>
+          <t>38.99</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>25.67</t>
+          <t>26.29</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>18207</t>
+          <t>18576</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>油電燃氣業右下</t>
+          <t>油電燃氣業平</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>39.77</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>38</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>9571</t>
+          <t>4726</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>11.66</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>25.28</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>13.67</t>
+          <t>13.97</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>2528</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>10.31</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>35856</t>
+          <t>11063</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>22.11</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>31.92</t>
+          <t>35.58</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>23.61</t>
+          <t>24.23</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>2291</t>
+          <t>2554</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1459,84 +1459,84 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
+          <t>3.2</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>18760</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>-0.38</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>23943</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>9.41</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>-0.38</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>34.0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>20.0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB5" t="inlineStr">
         <is>
           <t>0</t>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>16.31</t>
+          <t>16.85</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>12.07</t>
+          <t>12.44</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>220474</t>
+          <t>227766</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>金融保險平</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>14.93</t>
+          <t>12.58</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1701,84 +1701,84 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2431</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>6.68</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>21.0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>89.0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB6" t="inlineStr">
         <is>
           <t>2025-03-13</t>
@@ -1786,7 +1786,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>519.17</t>
+          <t>530.0</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>60.58</t>
+          <t>60.37</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>1133</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1943,17 +1943,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>6458</t>
+          <t>1720</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1963,12 +1963,12 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>22.7</t>
+          <t>24.14</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>29.99</t>
+          <t>30.1</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>6455</t>
+          <t>6864</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>電機機械平</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -2165,7 +2165,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>88.44</t>
+          <t>38.65</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2185,17 +2185,17 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>45</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1638</t>
+          <t>4238</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -2205,12 +2205,12 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>9.21</t>
+          <t>-7.99</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>6.14</t>
+          <t>6.17</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>14.98</t>
+          <t>14.91</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>100.64</t>
+          <t>107.45</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>4409</t>
+          <t>4387</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2427,84 +2427,84 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
+          <t>-2.7</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>864</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>-0.09</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>-0.41</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>-0.69</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>-0.49</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>-99.0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>2477</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>19.98</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>-0.09</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>-0.41</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>-0.69</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>-0.49</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>-99.0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>53.0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>32.0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB9" t="inlineStr">
         <is>
           <t>0</t>
@@ -2567,12 +2567,12 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>95.04</t>
+          <t>95.02</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1831</t>
+          <t>1783</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2649,7 +2649,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>21.27</t>
+          <t>16.97</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2669,17 +2669,17 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>15.22</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2231</t>
+          <t>1690</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>13.51</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
@@ -2809,12 +2809,12 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>60.58</t>
+          <t>60.37</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>863</t>
+          <t>1018</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2916,12 +2916,12 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>52</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>25282</t>
+          <t>10758</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -2931,12 +2931,12 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-9.17</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -2996,7 +2996,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>42.23</t>
+          <t>42.45</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
@@ -3092,6 +3092,248 @@
       <c r="AV11" t="inlineStr">
         <is>
           <t>** 建材營造 - 建材原料</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1240</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>56.7</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>-1.07</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>3924</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>-22.10</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>-0.17</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>195.0</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>茂生農經</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>農業科技業</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>17.51</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>12.93</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>13.83%</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>5.37%</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>46.51</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>2319</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>禽畜飼料56.08%、蛋品22.89%、養殖13.65%、大宗原物料買賣7.11%、其他0.28% (2023年)</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>茂生農經-農業科技業-上櫃</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>農業科技業右上</t>
+        </is>
+      </c>
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>34.98</t>
+        </is>
+      </c>
+      <c r="AT12" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU12" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV12" t="inlineStr">
+        <is>
+          <t>** 其他 - 農業科技業</t>
         </is>
       </c>
     </row>

--- a/Result/check1/2025-04-08.xlsx
+++ b/Result/check1/2025-04-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV12"/>
+  <dimension ref="A1:AV11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>890</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>38.99</t>
+          <t>37.95</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>26.29</t>
+          <t>26.33</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>18576</t>
+          <t>18078</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>油電燃氣業平</t>
+          <t>油電燃氣業右下</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-1.12</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>58</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>4726</t>
+          <t>13401</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>13.35</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>26.68</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>13.97</t>
+          <t>14.26</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2668</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>46.86</t>
+          <t>43.35</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>10.31</t>
+          <t>11.76</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>164</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>11063</t>
+          <t>82717</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>35.58</t>
+          <t>36.17</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>24.23</t>
+          <t>24.04</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>2554</t>
+          <t>2596</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>69</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>18760</t>
+          <t>22443</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1479,12 +1479,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>16.85</t>
+          <t>17.19</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>12.44</t>
+          <t>12.33</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>227766</t>
+          <t>232385</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1701,17 +1701,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>10.87</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>24</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>889</t>
+          <t>5259</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1721,12 +1721,12 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>530.0</t>
+          <t>582.5</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>60.37</t>
+          <t>61.25</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1133</t>
+          <t>1245</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1943,17 +1943,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>5.97</t>
+          <t>-1.22</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1720</t>
+          <t>2270</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1963,12 +1963,12 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>24.14</t>
+          <t>22.43</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>30.1</t>
+          <t>30.03</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>6864</t>
+          <t>6377</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -2185,17 +2185,17 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>4238</t>
+          <t>1703</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-7.99</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -2240,7 +2240,7 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>6.17</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>14.91</t>
+          <t>15.14</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>107.45</t>
+          <t>107.65</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>4387</t>
+          <t>4456</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>文化創意業平</t>
+          <t>文化創意業右上</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
@@ -2377,17 +2377,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3419</t>
+          <t>3297</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>9.92</t>
+          <t>9.89</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2476.954</t>
+          <t>2231.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,17 +2397,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>19.98</t>
+          <t>13.51</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>26.36</t>
+          <t>16.97</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>15.2</t>
+          <t>23.95</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2427,72 +2427,72 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-2.7</t>
+          <t>22.87</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>864</t>
+          <t>5860</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-0.41</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>-99.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>53.0</t>
+          <t>125.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>87.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2502,42 +2502,42 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>87</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>28727879.0</t>
+          <t>130342.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>譁裕</t>
+          <t>杭特</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
@@ -2557,42 +2557,42 @@
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>14.64%</t>
+          <t>33.49%</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>-15.59%</t>
+          <t>-25.64%</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>95.02</t>
+          <t>61.25</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1783</t>
+          <t>1119</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>高中低頻無線裝置79.66%、電子及光通訊零件15.69%、電子訊號連接裝置4.25%、電子產品0.40% (2023年)</t>
+          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>譁裕-通信網路業-上市</t>
+          <t>杭特-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>通信網路業右下</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>9.87</t>
+          <t>15.63</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>** 平面顯示器 - 其他零組件** 通信網路 - 網路設備(如數據機、網路卡、閘道器、路由器、網路電話)、無線通訊設備(如行動電話、衛星定位系統、衛星通訊設備、微波通訊設備、數位機上盒)** 連接器 - 連接器設計、組裝及製造</t>
+          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
         </is>
       </c>
     </row>
@@ -2619,17 +2619,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3297</t>
+          <t>1806</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9.89</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2231.0</t>
+          <t>25281.807</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,114 +2639,114 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>13.51</t>
+          <t>-9.17</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>16.97</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>10.9</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>-2.83</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>3840</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>-0.89</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>23.95</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>15.22</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>1690</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>125.0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>87.0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="AB10" t="inlineStr">
         <is>
           <t>2025-04-02</t>
@@ -2754,87 +2754,87 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>83</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>130342.0</t>
+          <t>-51261423.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>杭特</t>
+          <t>冠軍</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>玻璃陶瓷</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>34.19</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>33.49%</t>
+          <t>24.19%</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>-25.64%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>60.37</t>
+          <t>44.38</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1018</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
+          <t>瓷磚98.03%、木地板(坪/平方公尺/片)1.97% (2023年)</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>杭特-光電業-上櫃</t>
+          <t>冠軍-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>15.63</t>
+          <t>14.4</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
@@ -2861,17 +2861,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1806</t>
+          <t>1240</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>7.79</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>25281.807</t>
+          <t>122.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2881,27 +2881,27 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-9.17</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10.9</t>
+          <t>56.7</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2911,172 +2911,172 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
+          <t>-1.43</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>782</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>-0.17</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>10758</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>-0.88</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>191.0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>83.0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>70</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>-51261423.0</t>
+          <t>195.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>冠軍</t>
+          <t>茂生農經</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>玻璃陶瓷</t>
+          <t>農業科技業</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>9.17</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>17.51</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>35.16</t>
+          <t>12.88</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>24.19%</t>
+          <t>13.83%</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>9.98%</t>
+          <t>5.37%</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>42.45</t>
+          <t>45.67</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>4255</t>
+          <t>2311</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>瓷磚98.03%、木地板(坪/平方公尺/片)1.97% (2023年)</t>
+          <t>禽畜飼料56.08%、蛋品22.89%、養殖13.65%、大宗原物料買賣7.11%、其他0.28% (2023年)</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>冠軍-玻璃陶瓷-上市</t>
+          <t>茂生農經-農業科技業-上櫃</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>農業科技業右上</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>14.4</t>
+          <t>34.98</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
@@ -3090,248 +3090,6 @@
         </is>
       </c>
       <c r="AV11" t="inlineStr">
-        <is>
-          <t>** 建材營造 - 建材原料</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2025-04-08</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1240</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>7.79</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>122.0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>56.7</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>-1.07</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>3924</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>-22.10</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>-0.17</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>15.0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>70.0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>195.0</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>茂生農經</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>農業科技業</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>6.06</t>
-        </is>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>17.51</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>12.93</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>13.83%</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>5.37%</t>
-        </is>
-      </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>46.51</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>2319</t>
-        </is>
-      </c>
-      <c r="AP12" t="inlineStr">
-        <is>
-          <t>禽畜飼料56.08%、蛋品22.89%、養殖13.65%、大宗原物料買賣7.11%、其他0.28% (2023年)</t>
-        </is>
-      </c>
-      <c r="AQ12" t="inlineStr">
-        <is>
-          <t>茂生農經-農業科技業-上櫃</t>
-        </is>
-      </c>
-      <c r="AR12" t="inlineStr">
-        <is>
-          <t>農業科技業右上</t>
-        </is>
-      </c>
-      <c r="AS12" t="inlineStr">
-        <is>
-          <t>34.98</t>
-        </is>
-      </c>
-      <c r="AT12" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU12" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV12" t="inlineStr">
         <is>
           <t>** 其他 - 農業科技業</t>
         </is>

--- a/Result/check1/2025-04-08.xlsx
+++ b/Result/check1/2025-04-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV11"/>
+  <dimension ref="A1:AV10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>-4.23</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>890</t>
+          <t>604</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>-4.23</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>37.95</t>
+          <t>36.67</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,17 +873,17 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>26.33</t>
+          <t>25.86</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>18078</t>
+          <t>17469</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>無鉛汽油52.63%、高級柴油20.42%、無鉛汽油10.87%、無鉛汽油5.77%、其他5.26%、洗車1.53%、儲能產品1.26%、客房及餐飲0.99%、電動巴士0.66%、副油品0.54%、車輛檢查0.08% (2023年)</t>
+          <t>油品57.08%、房地銷售33.22%、電力6.94%、其他2.75% (2024年)</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>13.78</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>59</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>13401</t>
+          <t>9533</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>13.35</t>
+          <t>9.40</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>26.68</t>
+          <t>29.32</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>14.26</t>
+          <t>14.54</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>2668</t>
+          <t>2932</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>11.76</t>
+          <t>8.98</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>197</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>82717</t>
+          <t>39989</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>-9.26</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>36.17</t>
+          <t>35.06</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>24.04</t>
+          <t>24.46</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>2596</t>
+          <t>2517</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>45</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>22443</t>
+          <t>11447</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>17.19</t>
+          <t>17.09</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>232385</t>
+          <t>230926</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1701,17 +1701,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>10.87</t>
+          <t>18.88</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>5259</t>
+          <t>768</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1721,12 +1721,12 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>8.04</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>582.5</t>
+          <t>640.0</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>61.25</t>
+          <t>63.7</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1245</t>
+          <t>1368</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1943,17 +1943,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-1.22</t>
+          <t>-0.3</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2270</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-1.78</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>22.43</t>
+          <t>22.63</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>30.03</t>
+          <t>30.42</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>6377</t>
+          <t>6435</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2185,17 +2185,17 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>29</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1703</t>
+          <t>1548</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -2205,12 +2205,12 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -2240,7 +2240,7 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>6.08</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>15.14</t>
+          <t>15.79</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>107.65</t>
+          <t>106.38</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>4456</t>
+          <t>4648</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2427,17 +2427,17 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>22.87</t>
+          <t>29.87</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>37</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>5860</t>
+          <t>7745</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -2447,12 +2447,12 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>6.22</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>61.25</t>
+          <t>63.7</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1119</t>
+          <t>1231</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2669,17 +2669,17 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>-4.31</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>3840</t>
+          <t>3573</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-4.30</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>9.57</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>34.19</t>
+          <t>33.71</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2809,17 +2809,17 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>44.38</t>
+          <t>44.48</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>4138</t>
+          <t>4080</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>瓷磚98.03%、木地板(坪/平方公尺/片)1.97% (2023年)</t>
+          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
@@ -2850,248 +2850,6 @@
       <c r="AV10" t="inlineStr">
         <is>
           <t>** 建材營造 - 建材原料</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2025-04-08</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1240</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>7.79</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>122.0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>56.7</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>-1.43</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>782</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>-0.17</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>15.0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>70.0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>195.0</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>茂生農經</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>農業科技業</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>6.08</t>
-        </is>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>17.51</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>12.88</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>13.83%</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>5.37%</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>45.67</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>2311</t>
-        </is>
-      </c>
-      <c r="AP11" t="inlineStr">
-        <is>
-          <t>禽畜飼料56.08%、蛋品22.89%、養殖13.65%、大宗原物料買賣7.11%、其他0.28% (2023年)</t>
-        </is>
-      </c>
-      <c r="AQ11" t="inlineStr">
-        <is>
-          <t>茂生農經-農業科技業-上櫃</t>
-        </is>
-      </c>
-      <c r="AR11" t="inlineStr">
-        <is>
-          <t>農業科技業右上</t>
-        </is>
-      </c>
-      <c r="AS11" t="inlineStr">
-        <is>
-          <t>34.98</t>
-        </is>
-      </c>
-      <c r="AT11" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU11" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV11" t="inlineStr">
-        <is>
-          <t>** 其他 - 農業科技業</t>
         </is>
       </c>
     </row>

--- a/Result/check1/2025-04-08.xlsx
+++ b/Result/check1/2025-04-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV10"/>
+  <dimension ref="A1:AV9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,17 +683,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8927</t>
+          <t>8072</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>8.33</t>
+          <t>9.97</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3189.0</t>
+          <t>9571.04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>19.37</t>
+          <t>11.66</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>31.87</t>
+          <t>39.77</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>31.6</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -733,72 +733,72 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-4.23</t>
+          <t>21.59</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>40</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>6525</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-4.23</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-1.48</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-1.03</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>103.0</t>
+          <t>189.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>70.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -808,97 +808,97 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>70</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>113279.0</t>
+          <t>499367500.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>北基</t>
+          <t>陞泰</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>油電燃氣業</t>
+          <t>電子通路業</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>36.67</t>
+          <t>32.24</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>15.01%</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>1.63%</t>
+          <t>-0.15%</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>25.86</t>
+          <t>15.17</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>17469</t>
+          <t>3224</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>油品57.08%、房地銷售33.22%、電力6.94%、其他2.75% (2024年)</t>
+          <t>安全監控系統及電子材料100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>北基-油電燃氣業-上櫃</t>
+          <t>陞泰-電子通路業-上市</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>油電燃氣業右下</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>15.46</t>
+          <t>28.56</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
@@ -913,7 +913,7 @@
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>** 油電燃氣 - 加油站</t>
+          <t>** 其他 - 其他電子產品及電子服務產業</t>
         </is>
       </c>
     </row>
@@ -925,17 +925,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8072</t>
+          <t>6148</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>9.97</t>
+          <t>11.06</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9571.04</t>
+          <t>35856.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,27 +945,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>11.66</t>
+          <t>22.11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>39.77</t>
+          <t>43.35</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>31.6</t>
+          <t>49.15</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -975,57 +975,57 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>13.78</t>
+          <t>17.26</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>50</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>9533</t>
+          <t>44302</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>9.40</t>
+          <t>11.03</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>189.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>70.0</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1055,92 +1055,92 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>48</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>499367500.0</t>
+          <t>138138.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>陞泰</t>
+          <t>驊宏資</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>電子通路業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>29.32</t>
+          <t>38.57</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>15.01%</t>
+          <t>23.65%</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>-0.15%</t>
+          <t>6.98%</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>14.54</t>
+          <t>25.74</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>2932</t>
+          <t>2768</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>安全監控系統及電子材料100.00% (2024年)</t>
+          <t>技術服務53.47%、商品銷售45.45%、其他營業收入1.09% (2023年)</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>陞泰-電子通路業-上市</t>
+          <t>驊宏資-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>28.56</t>
+          <t>13.01</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>** 其他 - 其他電子產品及電子服務產業</t>
+          <t>** 軟體服務 - 系統整合服務** 雲端運算 - 系統整合** 大數據 - 系統整合</t>
         </is>
       </c>
     </row>
@@ -1167,17 +1167,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6148</t>
+          <t>5876</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11.06</t>
+          <t>9.55</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>35856.0</t>
+          <t>23943.006</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,17 +1187,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>22.11</t>
+          <t>9.41</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>43.35</t>
+          <t>36.27</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>49.15</t>
+          <t>45.35</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1217,32 +1217,32 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>8.98</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>39989</t>
+          <t>8103</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-9.26</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1252,37 +1252,37 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.38</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1307,82 +1307,82 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>138138.0</t>
+          <t>1223706173.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>驊宏資</t>
+          <t>上海商銀</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>35.06</t>
+          <t>16.78</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>23.65%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>6.98%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>24.46</t>
+          <t>12.48</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>2517</t>
+          <t>226794</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>技術服務53.47%、商品銷售45.45%、其他營業收入1.09% (2023年)</t>
+          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>驊宏資-資訊服務業-上櫃</t>
+          <t>上海商銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>13.01</t>
+          <t>40.81</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>** 軟體服務 - 系統整合服務** 雲端運算 - 系統整合** 大數據 - 系統整合</t>
+          <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
       </c>
     </row>
@@ -1409,17 +1409,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5876</t>
+          <t>5251</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9.55</t>
+          <t>9.36</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23943.006</t>
+          <t>2431.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,202 +1429,202 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.41</t>
+          <t>6.68</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>36.27</t>
+          <t>12.58</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>31.15</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>26.18</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>5222</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>45.35</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>11447</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>-0.38</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>34.0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>20.0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>89</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>1223706173.0</t>
+          <t>99211.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>上海商銀</t>
+          <t>天鉞電</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>17.09</t>
+          <t>703.33</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>42.46%</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5.73%</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>12.33</t>
+          <t>67.41</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>230926</t>
+          <t>1504</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
+          <t>安全監視產品56.55%、其他23.61%、智能電子門鎖19.84% (2024年)</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>上海商銀-金融保險-上市</t>
+          <t>天鉞電-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>40.81</t>
+          <t>11.89</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>** 金融 - 金控業/銀行業/保險業</t>
+          <t>** 電腦及週邊設備 - 安全監控系統</t>
         </is>
       </c>
     </row>
@@ -1651,17 +1651,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5251</t>
+          <t>4572</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9.36</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2431.0</t>
+          <t>6458.18</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,27 +1671,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.68</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>-0.82</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>12.58</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>31.15</t>
+          <t>165.5</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1701,72 +1701,72 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>18.88</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>768</t>
+          <t>1927</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>89.0</t>
+          <t>96.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1776,97 +1776,97 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>96</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>99211.0</t>
+          <t>304327240.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>天鉞電</t>
+          <t>駐龍</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>電機機械</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>640.0</t>
+          <t>23.05</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>42.46%</t>
+          <t>47.42%</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>5.73%</t>
+          <t>34.60%</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>63.7</t>
+          <t>32.21</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1368</t>
+          <t>6552</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>安全監視產品56.55%、其他23.61%、智能電子門鎖19.84% (2024年)</t>
+          <t>商品銷售75.50%、加工品24.35%、其他0.15% (2024年)</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>天鉞電-光電業-上櫃</t>
+          <t>駐龍-電機機械-上市</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>11.89</t>
+          <t>53.57</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統</t>
+          <t>** 電機機械 - 金屬加工處理</t>
         </is>
       </c>
     </row>
@@ -1893,17 +1893,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4572</t>
+          <t>3546</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>9.87</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6458.18</t>
+          <t>1638.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,17 +1913,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>9.21</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-0.82</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>38.65</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>165.5</t>
+          <t>83.0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1943,72 +1943,72 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-0.3</t>
+          <t>7.26</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>2233</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-1.78</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>41.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>96.0</t>
+          <t>31.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -2033,82 +2033,82 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>31</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>304327240.0</t>
+          <t>105015.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>駐龍</t>
+          <t>宇峻</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>文化創意業</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>22.63</t>
+          <t>16.16</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>47.42%</t>
+          <t>98.53%</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>34.60%</t>
+          <t>26.68%</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>30.42</t>
+          <t>107.63</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>6435</t>
+          <t>4754</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>商品銷售75.50%、加工品24.35%、其他0.15% (2024年)</t>
+          <t>網路遊戲90.18%、權利金收入8.40%、其他1.42% (2024年)</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>駐龍-電機機械-上市</t>
+          <t>宇峻-文化創意業-上櫃</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>電機機械平</t>
+          <t>文化創意業右上</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>53.57</t>
+          <t>30.66</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>** 電機機械 - 金屬加工處理</t>
+          <t>** 文化創意業 - 數位內容產業** 休閒娛樂 - 設計開發</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2135,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3546</t>
+          <t>3297</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9.87</t>
+          <t>9.89</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1638.0</t>
+          <t>2231.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,17 +2155,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9.21</t>
+          <t>13.51</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>38.65</t>
+          <t>16.97</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>83.0</t>
+          <t>23.95</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2185,72 +2185,72 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>29.56</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>42</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1548</t>
+          <t>2236</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>41.0</t>
+          <t>125.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>87.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2265,32 +2265,32 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>87</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>105015.0</t>
+          <t>130342.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>宇峻</t>
+          <t>杭特</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>文化創意業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
@@ -2300,57 +2300,57 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>15.79</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>98.53%</t>
+          <t>33.49%</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>26.68%</t>
+          <t>-25.64%</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>106.38</t>
+          <t>67.41</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>4648</t>
+          <t>1226</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>網路遊戲90.18%、權利金收入8.40%、其他1.42% (2024年)</t>
+          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>宇峻-文化創意業-上櫃</t>
+          <t>杭特-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>文化創意業右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>30.66</t>
+          <t>15.63</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>** 文化創意業 - 數位內容產業** 休閒娛樂 - 設計開發</t>
+          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
         </is>
       </c>
     </row>
@@ -2377,17 +2377,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3297</t>
+          <t>1806</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>9.89</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2231.0</t>
+          <t>25281.807</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,114 +2397,114 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>13.51</t>
+          <t>-9.17</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>16.97</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>10.9</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>5797</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>23.95</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>29.87</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>7745</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>6.22</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>125.0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>87.0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="AB9" t="inlineStr">
         <is>
           <t>2025-04-02</t>
@@ -2512,87 +2512,87 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>83</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>130342.0</t>
+          <t>-51261423.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>杭特</t>
+          <t>冠軍</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>玻璃陶瓷</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>35.65</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>33.49%</t>
+          <t>24.19%</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>-25.64%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>63.7</t>
+          <t>46.69</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1231</t>
+          <t>4314</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
+          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>杭特-光電業-上櫃</t>
+          <t>冠軍-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>15.63</t>
+          <t>14.4</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
@@ -2606,248 +2606,6 @@
         </is>
       </c>
       <c r="AV9" t="inlineStr">
-        <is>
-          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2025-04-08</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1806</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>-0.45</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>25281.807</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>-9.17</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>10.9</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>-4.31</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>3573</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>-4.30</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>191.0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>83.0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>2025-04-15</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>-51261423.0</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>冠軍</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>玻璃陶瓷</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>9.57</t>
-        </is>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>33.71</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>24.19%</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>9.98%</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>44.48</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>4080</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr">
-        <is>
-          <t>冠軍-玻璃陶瓷-上市</t>
-        </is>
-      </c>
-      <c r="AR10" t="inlineStr">
-        <is>
-          <t>玻璃陶瓷平</t>
-        </is>
-      </c>
-      <c r="AS10" t="inlineStr">
-        <is>
-          <t>14.4</t>
-        </is>
-      </c>
-      <c r="AT10" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU10" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV10" t="inlineStr">
         <is>
           <t>** 建材營造 - 建材原料</t>
         </is>

--- a/Result/check1/2025-04-08.xlsx
+++ b/Result/check1/2025-04-08.xlsx
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>21.59</t>
+          <t>15.73</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>76</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>6525</t>
+          <t>16218</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>-16.80</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>32.24</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>15.17</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3224</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>17.26</t>
+          <t>24.73</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>48</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>44302</t>
+          <t>34050</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>11.03</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>38.57</t>
+          <t>42.4</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>25.74</t>
+          <t>25.95</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>2768</t>
+          <t>3043</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>59</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>8103</t>
+          <t>11791</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>16.78</t>
+          <t>17.07</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>12.48</t>
+          <t>12.38</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>226794</t>
+          <t>230683</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>92</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>97.22</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1701,17 +1701,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>6.76</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>39</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1927</t>
+          <t>6643</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1721,12 +1721,12 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>6.36</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>23.05</t>
+          <t>24.35</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>32.21</t>
+          <t>31.5</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>6552</t>
+          <t>6923</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1943,99 +1943,99 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>7.26</t>
+          <t>5.68</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>1438</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>-2.38</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>-0.20</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
           <t>31</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>2233</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>-0.20</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>41.0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>31.0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
       <c r="AE7" t="inlineStr">
         <is>
           <t>105015.0</t>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>16.16</t>
+          <t>15.88</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>107.63</t>
+          <t>107.52</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>4754</t>
+          <t>4674</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2185,17 +2185,17 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>29.56</t>
+          <t>25.62</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2236</t>
+          <t>1342</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -2205,12 +2205,12 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>-6.21</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>67.41</t>
+          <t>66.84</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>1226</t>
+          <t>1161</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2427,17 +2427,17 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>5797</t>
+          <t>5193</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -2447,12 +2447,12 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>35.65</t>
+          <t>36.13</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>46.69</t>
+          <t>46.82</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>4314</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">

--- a/Result/check1/2025-04-08.xlsx
+++ b/Result/check1/2025-04-08.xlsx
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>15.73</t>
+          <t>12.71</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>70</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>16218</t>
+          <t>13014</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-16.80</t>
+          <t>-6.63</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>28.96</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>2896</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>43.35</t>
+          <t>35.41</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -975,99 +975,99 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>24.73</t>
+          <t>18.63</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>101264</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>-13.54</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>-0.07</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
           <t>48</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>34050</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>-0.07</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>12.0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>48.0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
       <c r="AE3" t="inlineStr">
         <is>
           <t>138138.0</t>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>42.4</t>
+          <t>39.22</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>25.95</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>3043</t>
+          <t>2815</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>11791</t>
+          <t>5941</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>17.07</t>
+          <t>16.87</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>12.38</t>
+          <t>12.33</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>230683</t>
+          <t>228009</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>26.18</t>
+          <t>17.15</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>50</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>5222</t>
+          <t>8926</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1479,12 +1479,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>-14.61</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>703.33</t>
+          <t>626.67</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>67.41</t>
+          <t>64.79</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1504</t>
+          <t>1340</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1701,17 +1701,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>27</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>6643</t>
+          <t>4201</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1721,12 +1721,12 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>6.36</t>
+          <t>-0.99</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>24.35</t>
+          <t>23.46</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>31.5</t>
+          <t>31.44</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>6923</t>
+          <t>6669</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1943,17 +1943,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1438</t>
+          <t>828</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-2.38</t>
+          <t>-2.32</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>5.93</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>15.88</t>
+          <t>15.52</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>107.52</t>
+          <t>107.26</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>4674</t>
+          <t>4568</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2185,17 +2185,17 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>25.62</t>
+          <t>24.45</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1342</t>
+          <t>1162</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -2205,12 +2205,12 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-6.21</t>
+          <t>-5.33</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -2240,7 +2240,7 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>66.84</t>
+          <t>64.79</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>1161</t>
+          <t>1143</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2427,17 +2427,17 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>5193</t>
+          <t>3793</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>8.93</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>36.13</t>
+          <t>36.29</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>46.82</t>
+          <t>47.12</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>4392</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">

--- a/Result/check1/2025-04-08.xlsx
+++ b/Result/check1/2025-04-08.xlsx
@@ -733,99 +733,99 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>12.71</t>
+          <t>20.6</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>5742</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
           <t>70</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>13014</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>-6.63</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>189.0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>70.0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>2025-04-07</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>2025-04-09</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
       <c r="AE2" t="inlineStr">
         <is>
           <t>499367500.0</t>
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>28.96</t>
+          <t>31.84</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>15.11</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>2896</t>
+          <t>3184</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>18.63</t>
+          <t>25.98</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>151</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>101264</t>
+          <t>80371</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-13.54</t>
+          <t>11.41</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>39.22</t>
+          <t>43.12</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>26.22</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>2815</t>
+          <t>3095</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1222,12 +1222,12 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>5941</t>
+          <t>3703</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>12.33</t>
+          <t>12.36</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>17.15</t>
+          <t>24.67</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>8926</t>
+          <t>3301</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-14.61</t>
+          <t>8.10</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>626.67</t>
+          <t>689.17</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>64.79</t>
+          <t>66.65</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1340</t>
+          <t>1473</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1701,17 +1701,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>4201</t>
+          <t>893</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-0.99</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>23.46</t>
+          <t>23.11</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>31.44</t>
+          <t>31.24</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>6669</t>
+          <t>6572</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1943,17 +1943,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>9.78</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>45</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>1791</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-2.32</t>
+          <t>7.60</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>15.52</t>
+          <t>16.61</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>107.26</t>
+          <t>107.89</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>4568</t>
+          <t>4887</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2185,17 +2185,17 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>24.45</t>
+          <t>31.28</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1162</t>
+          <t>1951</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-5.33</t>
+          <t>9.25</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -2240,7 +2240,7 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>64.79</t>
+          <t>66.65</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>1143</t>
+          <t>1256</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2427,17 +2427,17 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>48</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>3793</t>
+          <t>10355</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>-5.72</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>36.29</t>
+          <t>36.61</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>47.12</t>
+          <t>46.77</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>4392</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">

--- a/Result/check1/2025-04-08.xlsx
+++ b/Result/check1/2025-04-08.xlsx
@@ -713,7 +713,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>39.77</t>
+          <t>25.62</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>20.6</t>
+          <t>14.82</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>54</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>5742</t>
+          <t>12736</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>10.10</t>
+          <t>-6.46</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>31.84</t>
+          <t>29.68</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>15.11</t>
+          <t>14.61</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3184</t>
+          <t>2968</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>25.98</t>
+          <t>16.84</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>238</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>80371</t>
+          <t>19287</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>11.41</t>
+          <t>-9.81</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>43.12</t>
+          <t>38.38</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>26.22</t>
+          <t>25.36</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>3095</t>
+          <t>2754</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>3703</t>
+          <t>6990</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,39 +1237,39 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>-0.38</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
           <t>0.36</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>-0.38</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
       <c r="W4" t="inlineStr">
         <is>
           <t>90.0</t>
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>16.87</t>
+          <t>17.07</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>12.36</t>
+          <t>12.24</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>228009</t>
+          <t>230683</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>12.58</t>
+          <t>10.78</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>24.67</t>
+          <t>22.9</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>90</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>3301</t>
+          <t>21566</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1479,12 +1479,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>8.10</t>
+          <t>-4.43</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>689.17</t>
+          <t>673.33</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>66.65</t>
+          <t>64.28</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1473</t>
+          <t>1439</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1701,17 +1701,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>893</t>
+          <t>911</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-1.19</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>23.11</t>
+          <t>22.7</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>31.24</t>
+          <t>29.82</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>6572</t>
+          <t>6455</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -1943,17 +1943,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>9.78</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1791</t>
+          <t>995</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1963,12 +1963,12 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>7.60</t>
+          <t>-1.33</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>5.72</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>16.61</t>
+          <t>16.1</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>107.89</t>
+          <t>101.03</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>4887</t>
+          <t>4738</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2185,17 +2185,17 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>31.28</t>
+          <t>19.09</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1951</t>
+          <t>596</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -2205,12 +2205,12 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>9.25</t>
+          <t>-6.08</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -2240,7 +2240,7 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>66.65</t>
+          <t>64.28</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>1256</t>
+          <t>1067</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2427,17 +2427,17 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>10355</t>
+          <t>3157</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -2447,12 +2447,12 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-5.72</t>
+          <t>-4.09</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>36.61</t>
+          <t>35.48</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>46.77</t>
+          <t>45.66</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>4431</t>
+          <t>4294</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
